--- a/Hardware/RcMPPT-SCC/Project Outputs for RcMPPT-SCC/RcMPPT-SCC.xlsx
+++ b/Hardware/RcMPPT-SCC/Project Outputs for RcMPPT-SCC/RcMPPT-SCC.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\GitHub\RcMPPT\Hardware\RcMPPT-SCC\Project Outputs for RcMPPT-SCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A3754C-3966-42F2-87E1-3B558ABAD1D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E69E6C-23C3-4FBA-8AD8-2F3245042BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="335" windowWidth="5400" windowHeight="3105" xr2:uid="{346438B6-1954-45FD-B748-5F7AF6D20E8C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{346438B6-1954-45FD-B748-5F7AF6D20E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="RcMPPT-SCC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RcMPPT-SCC'!$C$1:$C$46</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'RcMPPT-SCC'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -887,12 +888,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC0DD8C-79F1-4729-8945-5614E8D66C15}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -916,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>5</v>
       </c>
@@ -933,7 +936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -984,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>12</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -1666,6 +1669,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C46" xr:uid="{3B0B0CA2-756C-4FD4-AE07-6B87DE46AC49}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VJ0603Y104JXJAC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
